--- a/tests/bin/sample_COUNTER_R5_reports/sample_TR_reports.xlsx
+++ b/tests/bin/sample_COUNTER_R5_reports/sample_TR_reports.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PQ Oct. 19-20" sheetId="10" r:id="rId1"/>
     <sheet name="EBSCO Jul.-Dec. 2019" sheetId="12" r:id="rId2"/>
     <sheet name="Gale 19-20" sheetId="8" r:id="rId3"/>
+    <sheet name="Duke 19-20" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'EBSCO Jul.-Dec. 2019'!$A$14:$W$587</definedName>
@@ -22,7 +23,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PQ Oct. 19-20'!$A$14:$Z$14</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13665" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13952" uniqueCount="300">
   <si>
     <t>Report_Name</t>
   </si>
@@ -1138,6 +1138,93 @@
   <si>
     <t>Attributes_To_Show=Data_Type|Section_Type|YOP|Access_Type|Access_Method</t>
   </si>
+  <si>
+    <t>FLORIDA STATE UNIV</t>
+  </si>
+  <si>
+    <t>Silverchair:280</t>
+  </si>
+  <si>
+    <t>Access_Method=Regular; Data_Type=Book|Journal; Section_Type=Book|Chapter|Other</t>
+  </si>
+  <si>
+    <t>Attributes_To_Show=Access_Method|Access_Type|Data_Type|Section_Type|YOP</t>
+  </si>
+  <si>
+    <t>Error 3060 Invalid ReportFilter Value: Not implemented: TDM; Error 3060 Invalid ReportFilter Value: Invalid Data Type: Section; Error 3060 Invalid ReportFilter Value: Invalid Section Type: Section; Error 3050 Parameter Not Recognized in this Context: Invalid Attribute: Authors; Error 3050 Parameter Not Recognized in this Context: Invalid Attribute: Publication_Date; Error 3050 Parameter Not Recognized in this Context: Invalid Attribute: Article_Version</t>
+  </si>
+  <si>
+    <t>Begin_Date=2019-07-01; End_Date=2020-06-30</t>
+  </si>
+  <si>
+    <t>2023-02-15T15:20:09Z</t>
+  </si>
+  <si>
+    <t>Silverchair</t>
+  </si>
+  <si>
+    <t>Archive Stories&lt;subtitle&gt;Facts, Fictions, and the Writing of History&lt;/subtitle&gt;</t>
+  </si>
+  <si>
+    <t>Duke University Press</t>
+  </si>
+  <si>
+    <t>10.1215/9780822387046</t>
+  </si>
+  <si>
+    <t>Silverchair:989</t>
+  </si>
+  <si>
+    <t>978-0-8223-8704-6</t>
+  </si>
+  <si>
+    <t>Empires of Vision&lt;subtitle&gt;A Reader&lt;/subtitle&gt;</t>
+  </si>
+  <si>
+    <t>10.1215/9780822378976</t>
+  </si>
+  <si>
+    <t>Silverchair:417</t>
+  </si>
+  <si>
+    <t>978-0-8223-7897-6</t>
+  </si>
+  <si>
+    <t>Pikachu's Global Adventure&lt;subtitle&gt;The Rise and Fall of PokÃ©mon&lt;/subtitle&gt;</t>
+  </si>
+  <si>
+    <t>10.1215/9780822385813</t>
+  </si>
+  <si>
+    <t>Silverchair:891</t>
+  </si>
+  <si>
+    <t>978-0-8223-8581-3</t>
+  </si>
+  <si>
+    <t>The Gloria AnzaldÃºa Reader</t>
+  </si>
+  <si>
+    <t>10.1215/9780822391272</t>
+  </si>
+  <si>
+    <t>Silverchair:2252</t>
+  </si>
+  <si>
+    <t>978-0-8223-4555-8</t>
+  </si>
+  <si>
+    <t>Within the Circle&lt;subtitle&gt;An Anthology of African American Literary Criticism from the Harlem Renaissance to the Present&lt;/subtitle&gt;</t>
+  </si>
+  <si>
+    <t>10.1215/9780822399889</t>
+  </si>
+  <si>
+    <t>Silverchair:1923</t>
+  </si>
+  <si>
+    <t>978-0-8223-1536-0</t>
+  </si>
 </sst>
 </file>
 
@@ -1271,23 +1358,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -18312,7 +18383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W587"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -73826,9 +73897,1896 @@
   </sheetData>
   <autoFilter ref="A14:AC14">
     <sortState ref="A15:AC43508">
-      <sortCondition sortBy="cellColor" ref="A14" dxfId="2"/>
+      <sortCondition sortBy="cellColor" ref="A14" dxfId="0"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R14" s="1">
+        <v>43647</v>
+      </c>
+      <c r="S14" s="1">
+        <v>43678</v>
+      </c>
+      <c r="T14" s="1">
+        <v>43709</v>
+      </c>
+      <c r="U14" s="1">
+        <v>43739</v>
+      </c>
+      <c r="V14" s="1">
+        <v>43770</v>
+      </c>
+      <c r="W14" s="1">
+        <v>43800</v>
+      </c>
+      <c r="X14" s="1">
+        <v>43831</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>43862</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>43891</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>43922</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>43952</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>43983</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="15">
+        <v>2005</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="15">
+        <v>0</v>
+      </c>
+      <c r="S15" s="15">
+        <v>0</v>
+      </c>
+      <c r="T15" s="15">
+        <v>0</v>
+      </c>
+      <c r="U15" s="15">
+        <v>0</v>
+      </c>
+      <c r="V15" s="15">
+        <v>0</v>
+      </c>
+      <c r="W15" s="15">
+        <v>0</v>
+      </c>
+      <c r="X15" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="15">
+        <v>2005</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="R16" s="15">
+        <v>0</v>
+      </c>
+      <c r="S16" s="15">
+        <v>0</v>
+      </c>
+      <c r="T16" s="15">
+        <v>0</v>
+      </c>
+      <c r="U16" s="15">
+        <v>0</v>
+      </c>
+      <c r="V16" s="15">
+        <v>0</v>
+      </c>
+      <c r="W16" s="15">
+        <v>0</v>
+      </c>
+      <c r="X16" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="A17" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="15">
+        <v>2005</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="R17" s="15">
+        <v>0</v>
+      </c>
+      <c r="S17" s="15">
+        <v>0</v>
+      </c>
+      <c r="T17" s="15">
+        <v>0</v>
+      </c>
+      <c r="U17" s="15">
+        <v>0</v>
+      </c>
+      <c r="V17" s="15">
+        <v>0</v>
+      </c>
+      <c r="W17" s="15">
+        <v>2</v>
+      </c>
+      <c r="X17" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
+      <c r="A18" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="M18" s="15">
+        <v>2005</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="15">
+        <v>0</v>
+      </c>
+      <c r="S18" s="15">
+        <v>0</v>
+      </c>
+      <c r="T18" s="15">
+        <v>0</v>
+      </c>
+      <c r="U18" s="15">
+        <v>0</v>
+      </c>
+      <c r="V18" s="15">
+        <v>0</v>
+      </c>
+      <c r="W18" s="15">
+        <v>10</v>
+      </c>
+      <c r="X18" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
+      <c r="A19" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="M19" s="15">
+        <v>2005</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" s="15">
+        <v>0</v>
+      </c>
+      <c r="S19" s="15">
+        <v>0</v>
+      </c>
+      <c r="T19" s="15">
+        <v>0</v>
+      </c>
+      <c r="U19" s="15">
+        <v>0</v>
+      </c>
+      <c r="V19" s="15">
+        <v>0</v>
+      </c>
+      <c r="W19" s="15">
+        <v>2</v>
+      </c>
+      <c r="X19" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
+      <c r="A20" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="15">
+        <v>2013</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="15">
+        <v>0</v>
+      </c>
+      <c r="S20" s="15">
+        <v>0</v>
+      </c>
+      <c r="T20" s="15">
+        <v>0</v>
+      </c>
+      <c r="U20" s="15">
+        <v>0</v>
+      </c>
+      <c r="V20" s="15">
+        <v>0</v>
+      </c>
+      <c r="W20" s="15">
+        <v>0</v>
+      </c>
+      <c r="X20" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
+      <c r="A21" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="15">
+        <v>2013</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="R21" s="15">
+        <v>0</v>
+      </c>
+      <c r="S21" s="15">
+        <v>0</v>
+      </c>
+      <c r="T21" s="15">
+        <v>0</v>
+      </c>
+      <c r="U21" s="15">
+        <v>0</v>
+      </c>
+      <c r="V21" s="15">
+        <v>0</v>
+      </c>
+      <c r="W21" s="15">
+        <v>0</v>
+      </c>
+      <c r="X21" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
+      <c r="A22" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="15">
+        <v>2013</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P22" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="R22" s="15">
+        <v>0</v>
+      </c>
+      <c r="S22" s="15">
+        <v>0</v>
+      </c>
+      <c r="T22" s="15">
+        <v>0</v>
+      </c>
+      <c r="U22" s="15">
+        <v>0</v>
+      </c>
+      <c r="V22" s="15">
+        <v>0</v>
+      </c>
+      <c r="W22" s="15">
+        <v>0</v>
+      </c>
+      <c r="X22" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
+      <c r="A23" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="M23" s="15">
+        <v>2013</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" s="15">
+        <v>0</v>
+      </c>
+      <c r="S23" s="15">
+        <v>0</v>
+      </c>
+      <c r="T23" s="15">
+        <v>0</v>
+      </c>
+      <c r="U23" s="15">
+        <v>0</v>
+      </c>
+      <c r="V23" s="15">
+        <v>0</v>
+      </c>
+      <c r="W23" s="15">
+        <v>0</v>
+      </c>
+      <c r="X23" s="15">
+        <v>4</v>
+      </c>
+      <c r="Y23" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
+      <c r="A24" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="M24" s="15">
+        <v>2013</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="R24" s="15">
+        <v>0</v>
+      </c>
+      <c r="S24" s="15">
+        <v>0</v>
+      </c>
+      <c r="T24" s="15">
+        <v>0</v>
+      </c>
+      <c r="U24" s="15">
+        <v>0</v>
+      </c>
+      <c r="V24" s="15">
+        <v>0</v>
+      </c>
+      <c r="W24" s="15">
+        <v>0</v>
+      </c>
+      <c r="X24" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
+      <c r="A25" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="15">
+        <v>2004</v>
+      </c>
+      <c r="N25" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="R25" s="15">
+        <v>0</v>
+      </c>
+      <c r="S25" s="15">
+        <v>0</v>
+      </c>
+      <c r="T25" s="15">
+        <v>0</v>
+      </c>
+      <c r="U25" s="15">
+        <v>0</v>
+      </c>
+      <c r="V25" s="15">
+        <v>0</v>
+      </c>
+      <c r="W25" s="15">
+        <v>0</v>
+      </c>
+      <c r="X25" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="15">
+        <v>2</v>
+      </c>
+      <c r="AA25" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
+      <c r="A26" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" s="15">
+        <v>2004</v>
+      </c>
+      <c r="N26" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O26" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P26" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="R26" s="15">
+        <v>0</v>
+      </c>
+      <c r="S26" s="15">
+        <v>0</v>
+      </c>
+      <c r="T26" s="15">
+        <v>0</v>
+      </c>
+      <c r="U26" s="15">
+        <v>0</v>
+      </c>
+      <c r="V26" s="15">
+        <v>0</v>
+      </c>
+      <c r="W26" s="15">
+        <v>0</v>
+      </c>
+      <c r="X26" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="15">
+        <v>2</v>
+      </c>
+      <c r="AA26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
+      <c r="A27" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" s="15">
+        <v>2004</v>
+      </c>
+      <c r="N27" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P27" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="R27" s="15">
+        <v>0</v>
+      </c>
+      <c r="S27" s="15">
+        <v>0</v>
+      </c>
+      <c r="T27" s="15">
+        <v>0</v>
+      </c>
+      <c r="U27" s="15">
+        <v>0</v>
+      </c>
+      <c r="V27" s="15">
+        <v>0</v>
+      </c>
+      <c r="W27" s="15">
+        <v>0</v>
+      </c>
+      <c r="X27" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="15">
+        <v>2</v>
+      </c>
+      <c r="AA27" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
+      <c r="A28" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="15">
+        <v>2009</v>
+      </c>
+      <c r="N28" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O28" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P28" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="R28" s="15">
+        <v>0</v>
+      </c>
+      <c r="S28" s="15">
+        <v>0</v>
+      </c>
+      <c r="T28" s="15">
+        <v>0</v>
+      </c>
+      <c r="U28" s="15">
+        <v>0</v>
+      </c>
+      <c r="V28" s="15">
+        <v>2</v>
+      </c>
+      <c r="W28" s="15">
+        <v>0</v>
+      </c>
+      <c r="X28" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29">
+      <c r="A29" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="M29" s="15">
+        <v>2009</v>
+      </c>
+      <c r="N29" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O29" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P29" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="R29" s="15">
+        <v>0</v>
+      </c>
+      <c r="S29" s="15">
+        <v>0</v>
+      </c>
+      <c r="T29" s="15">
+        <v>0</v>
+      </c>
+      <c r="U29" s="15">
+        <v>0</v>
+      </c>
+      <c r="V29" s="15">
+        <v>2</v>
+      </c>
+      <c r="W29" s="15">
+        <v>0</v>
+      </c>
+      <c r="X29" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29">
+      <c r="A30" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="M30" s="15">
+        <v>2009</v>
+      </c>
+      <c r="N30" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O30" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P30" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="R30" s="15">
+        <v>0</v>
+      </c>
+      <c r="S30" s="15">
+        <v>0</v>
+      </c>
+      <c r="T30" s="15">
+        <v>0</v>
+      </c>
+      <c r="U30" s="15">
+        <v>0</v>
+      </c>
+      <c r="V30" s="15">
+        <v>2</v>
+      </c>
+      <c r="W30" s="15">
+        <v>0</v>
+      </c>
+      <c r="X30" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29">
+      <c r="A31" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" s="15">
+        <v>2009</v>
+      </c>
+      <c r="N31" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O31" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P31" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="R31" s="15">
+        <v>0</v>
+      </c>
+      <c r="S31" s="15">
+        <v>0</v>
+      </c>
+      <c r="T31" s="15">
+        <v>0</v>
+      </c>
+      <c r="U31" s="15">
+        <v>0</v>
+      </c>
+      <c r="V31" s="15">
+        <v>0</v>
+      </c>
+      <c r="W31" s="15">
+        <v>0</v>
+      </c>
+      <c r="X31" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29">
+      <c r="A32" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" s="15">
+        <v>2009</v>
+      </c>
+      <c r="N32" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O32" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P32" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="R32" s="15">
+        <v>0</v>
+      </c>
+      <c r="S32" s="15">
+        <v>0</v>
+      </c>
+      <c r="T32" s="15">
+        <v>0</v>
+      </c>
+      <c r="U32" s="15">
+        <v>0</v>
+      </c>
+      <c r="V32" s="15">
+        <v>0</v>
+      </c>
+      <c r="W32" s="15">
+        <v>0</v>
+      </c>
+      <c r="X32" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29">
+      <c r="A33" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" s="15">
+        <v>1994</v>
+      </c>
+      <c r="N33" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O33" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P33" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="R33" s="15">
+        <v>0</v>
+      </c>
+      <c r="S33" s="15">
+        <v>0</v>
+      </c>
+      <c r="T33" s="15">
+        <v>0</v>
+      </c>
+      <c r="U33" s="15">
+        <v>8</v>
+      </c>
+      <c r="V33" s="15">
+        <v>0</v>
+      </c>
+      <c r="W33" s="15">
+        <v>0</v>
+      </c>
+      <c r="X33" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29">
+      <c r="A34" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="M34" s="15">
+        <v>1994</v>
+      </c>
+      <c r="N34" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O34" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P34" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="R34" s="15">
+        <v>0</v>
+      </c>
+      <c r="S34" s="15">
+        <v>0</v>
+      </c>
+      <c r="T34" s="15">
+        <v>0</v>
+      </c>
+      <c r="U34" s="15">
+        <v>16</v>
+      </c>
+      <c r="V34" s="15">
+        <v>4</v>
+      </c>
+      <c r="W34" s="15">
+        <v>4</v>
+      </c>
+      <c r="X34" s="15">
+        <v>4</v>
+      </c>
+      <c r="Y34" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29">
+      <c r="A35" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="M35" s="15">
+        <v>1994</v>
+      </c>
+      <c r="N35" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O35" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P35" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="R35" s="15">
+        <v>0</v>
+      </c>
+      <c r="S35" s="15">
+        <v>0</v>
+      </c>
+      <c r="T35" s="15">
+        <v>0</v>
+      </c>
+      <c r="U35" s="15">
+        <v>8</v>
+      </c>
+      <c r="V35" s="15">
+        <v>0</v>
+      </c>
+      <c r="W35" s="15">
+        <v>0</v>
+      </c>
+      <c r="X35" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29">
+      <c r="A36" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" s="15">
+        <v>1994</v>
+      </c>
+      <c r="N36" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O36" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P36" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="R36" s="15">
+        <v>0</v>
+      </c>
+      <c r="S36" s="15">
+        <v>0</v>
+      </c>
+      <c r="T36" s="15">
+        <v>0</v>
+      </c>
+      <c r="U36" s="15">
+        <v>0</v>
+      </c>
+      <c r="V36" s="15">
+        <v>0</v>
+      </c>
+      <c r="W36" s="15">
+        <v>0</v>
+      </c>
+      <c r="X36" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29">
+      <c r="A37" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="15">
+        <v>1994</v>
+      </c>
+      <c r="N37" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O37" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P37" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="R37" s="15">
+        <v>0</v>
+      </c>
+      <c r="S37" s="15">
+        <v>0</v>
+      </c>
+      <c r="T37" s="15">
+        <v>0</v>
+      </c>
+      <c r="U37" s="15">
+        <v>0</v>
+      </c>
+      <c r="V37" s="15">
+        <v>0</v>
+      </c>
+      <c r="W37" s="15">
+        <v>0</v>
+      </c>
+      <c r="X37" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/bin/sample_COUNTER_R5_reports/sample_TR_reports.xlsx
+++ b/tests/bin/sample_COUNTER_R5_reports/sample_TR_reports.xlsx
@@ -1190,9 +1190,6 @@
     <t>978-0-8223-7897-6</t>
   </si>
   <si>
-    <t>Pikachu's Global Adventure&lt;subtitle&gt;The Rise and Fall of PokÃ©mon&lt;/subtitle&gt;</t>
-  </si>
-  <si>
     <t>10.1215/9780822385813</t>
   </si>
   <si>
@@ -1200,9 +1197,6 @@
   </si>
   <si>
     <t>978-0-8223-8581-3</t>
-  </si>
-  <si>
-    <t>The Gloria AnzaldÃºa Reader</t>
   </si>
   <si>
     <t>10.1215/9780822391272</t>
@@ -1224,6 +1218,12 @@
   </si>
   <si>
     <t>978-0-8223-1536-0</t>
+  </si>
+  <si>
+    <t>Pikachu's Global Adventure&lt;subtitle&gt;The Rise and Fall of Pokémon&lt;/subtitle&gt;</t>
+  </si>
+  <si>
+    <t>The Gloria Anzaldúa Reader</t>
   </si>
 </sst>
 </file>
@@ -73909,7 +73909,7 @@
   <dimension ref="A1:AC37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -74835,7 +74835,7 @@
     </row>
     <row r="25" spans="1:29">
       <c r="A25" s="15" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>280</v>
@@ -74844,13 +74844,13 @@
         <v>280</v>
       </c>
       <c r="E25" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="F25" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="G25" s="15" t="s">
         <v>290</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>291</v>
       </c>
       <c r="K25" s="15" t="s">
         <v>17</v>
@@ -74909,7 +74909,7 @@
     </row>
     <row r="26" spans="1:29">
       <c r="A26" s="15" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>280</v>
@@ -74918,13 +74918,13 @@
         <v>280</v>
       </c>
       <c r="E26" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="F26" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="G26" s="15" t="s">
         <v>290</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>291</v>
       </c>
       <c r="K26" s="15" t="s">
         <v>17</v>
@@ -74983,7 +74983,7 @@
     </row>
     <row r="27" spans="1:29">
       <c r="A27" s="15" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>280</v>
@@ -74992,13 +74992,13 @@
         <v>280</v>
       </c>
       <c r="E27" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="F27" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="G27" s="15" t="s">
         <v>290</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>291</v>
       </c>
       <c r="K27" s="15" t="s">
         <v>17</v>
@@ -75054,7 +75054,7 @@
     </row>
     <row r="28" spans="1:29">
       <c r="A28" s="15" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>280</v>
@@ -75063,13 +75063,13 @@
         <v>280</v>
       </c>
       <c r="E28" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="G28" s="15" t="s">
         <v>293</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>295</v>
       </c>
       <c r="K28" s="15" t="s">
         <v>17</v>
@@ -75125,7 +75125,7 @@
     </row>
     <row r="29" spans="1:29">
       <c r="A29" s="15" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>280</v>
@@ -75134,13 +75134,13 @@
         <v>280</v>
       </c>
       <c r="E29" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="G29" s="15" t="s">
         <v>293</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>295</v>
       </c>
       <c r="K29" s="15" t="s">
         <v>17</v>
@@ -75199,7 +75199,7 @@
     </row>
     <row r="30" spans="1:29">
       <c r="A30" s="15" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>280</v>
@@ -75208,13 +75208,13 @@
         <v>280</v>
       </c>
       <c r="E30" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="G30" s="15" t="s">
         <v>293</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>295</v>
       </c>
       <c r="K30" s="15" t="s">
         <v>17</v>
@@ -75273,7 +75273,7 @@
     </row>
     <row r="31" spans="1:29">
       <c r="A31" s="15" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>280</v>
@@ -75282,13 +75282,13 @@
         <v>280</v>
       </c>
       <c r="E31" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="G31" s="15" t="s">
         <v>293</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>295</v>
       </c>
       <c r="K31" s="15" t="s">
         <v>17</v>
@@ -75347,7 +75347,7 @@
     </row>
     <row r="32" spans="1:29">
       <c r="A32" s="15" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>280</v>
@@ -75356,13 +75356,13 @@
         <v>280</v>
       </c>
       <c r="E32" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="G32" s="15" t="s">
         <v>293</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>295</v>
       </c>
       <c r="K32" s="15" t="s">
         <v>17</v>
@@ -75421,7 +75421,7 @@
     </row>
     <row r="33" spans="1:29">
       <c r="A33" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>280</v>
@@ -75430,13 +75430,13 @@
         <v>280</v>
       </c>
       <c r="E33" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="G33" s="15" t="s">
         <v>297</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>299</v>
       </c>
       <c r="K33" s="15" t="s">
         <v>17</v>
@@ -75492,7 +75492,7 @@
     </row>
     <row r="34" spans="1:29">
       <c r="A34" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>280</v>
@@ -75501,13 +75501,13 @@
         <v>280</v>
       </c>
       <c r="E34" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="G34" s="15" t="s">
         <v>297</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>299</v>
       </c>
       <c r="K34" s="15" t="s">
         <v>17</v>
@@ -75566,7 +75566,7 @@
     </row>
     <row r="35" spans="1:29">
       <c r="A35" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>280</v>
@@ -75575,13 +75575,13 @@
         <v>280</v>
       </c>
       <c r="E35" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="G35" s="15" t="s">
         <v>297</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>299</v>
       </c>
       <c r="K35" s="15" t="s">
         <v>17</v>
@@ -75640,7 +75640,7 @@
     </row>
     <row r="36" spans="1:29">
       <c r="A36" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>280</v>
@@ -75649,13 +75649,13 @@
         <v>280</v>
       </c>
       <c r="E36" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="G36" s="15" t="s">
         <v>297</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>299</v>
       </c>
       <c r="K36" s="15" t="s">
         <v>17</v>
@@ -75714,7 +75714,7 @@
     </row>
     <row r="37" spans="1:29">
       <c r="A37" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>280</v>
@@ -75723,13 +75723,13 @@
         <v>280</v>
       </c>
       <c r="E37" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="G37" s="15" t="s">
         <v>297</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>299</v>
       </c>
       <c r="K37" s="15" t="s">
         <v>17</v>
